--- a/Unidad 4/Ajuste.xlsx
+++ b/Unidad 4/Ajuste.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67695B0-2F82-4944-AB15-90ECD701A4C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA47409-59D6-42C6-8B18-68B809CE93CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5076" windowWidth="23040" windowHeight="7284" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer grado" sheetId="1" r:id="rId1"/>
-    <sheet name="Primer grado (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Segundo grado" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio" sheetId="4" r:id="rId2"/>
+    <sheet name="Primer grado (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Segundo grado" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
   <si>
     <t>xi</t>
   </si>
@@ -210,13 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -227,15 +222,21 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,96 +714,96 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>J4</f>
         <v>55</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f>J2</f>
         <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <f>J5</f>
         <v>59.5</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f>J2</f>
         <v>15</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f>COUNT(B2:B6)</f>
         <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <f>J3</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <f t="array" ref="I17:J18">MINVERSE(I12:J13)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>-0.29999999999999993</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>-0.29999999999999993</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>1.0999999999999999</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L19" s="11"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <f t="array" ref="J22:J23">MMULT(I17:J18,L12:L13)</f>
         <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <v>0.30000000000000426</v>
       </c>
     </row>
@@ -818,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567A531-2897-4F16-9193-BC4A86D2414E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A167E691-5068-4E34-BE5C-DA892740C349}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,330 +853,260 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0.76519769999999998</v>
       </c>
       <c r="D2">
         <f>B2*B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>0.76519769999999998</v>
       </c>
       <c r="F2">
         <f>($J$22*B2)+$J$23</f>
-        <v>0.48324022346368611</v>
+        <v>0.77616099999999877</v>
       </c>
       <c r="G2">
         <f>ABS(C2-F2)</f>
-        <v>0.51675977653631389</v>
+        <v>1.0963299999998788E-2</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(B2:B9)</f>
-        <v>21</v>
+        <f>SUM(B2:B6)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5</v>
+        <v>0.62008600000000003</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
-        <v>1</v>
+        <f t="shared" ref="D3:D6" si="0">B3*B3</f>
+        <v>1.6900000000000002</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">B3*C3</f>
-        <v>0.5</v>
+        <f t="shared" ref="E3:E6" si="1">B3*C3</f>
+        <v>0.80611180000000004</v>
       </c>
       <c r="F3">
         <f>($J$22*B3)+$J$23</f>
-        <v>1.2039106145251388</v>
+        <v>0.61136717999999945</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="2">ABS(C3-F3)</f>
-        <v>0.70391061452513881</v>
+        <f t="shared" ref="G3:G6" si="2">ABS(C3-F3)</f>
+        <v>8.7188200000005711E-3</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3">
-        <f>SUM(C2:C9)</f>
-        <v>19</v>
+        <f>SUM(C2:C6)</f>
+        <v>2.2328667999999996</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>0.45540219999999998</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0.72864351999999999</v>
       </c>
       <c r="F4">
         <f>($J$22*B4)+$J$23</f>
-        <v>1.5642458100558652</v>
+        <v>0.44657336000000014</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.43575418994413484</v>
+        <v>8.8288399999998379E-3</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J4">
-        <f>SUM(D2:D9)</f>
-        <v>77.5</v>
+        <f>SUM(D2:D6)</f>
+        <v>13.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C5" s="3">
-        <v>1.5</v>
+        <v>0.28181859999999997</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.61</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0.53545533999999995</v>
       </c>
       <c r="F5">
         <f>($J$22*B5)+$J$23</f>
-        <v>1.9245810055865915</v>
+        <v>0.28177954000000094</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.42458100558659151</v>
+        <v>3.9059999999035977E-5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J5">
-        <f>SUM(E2:E9)</f>
-        <v>66</v>
+        <f>SUM(E2:E6)</f>
+        <v>3.0782054199999997</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>0.1103623</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4.8400000000000007</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0.24279706000000001</v>
       </c>
       <c r="F6">
         <f>($J$22*B6)+$J$23</f>
-        <v>2.6452513966480442</v>
+        <v>0.11698572000000151</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.35474860335195579</v>
+        <v>6.6234200000015175E-3</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6">
-        <f>SUM(F2:F9)</f>
-        <v>18.999999999999996</v>
+        <f>SUM(F2:F6)</f>
+        <v>2.2328668000000009</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <f>($J$22*B7)+$J$23</f>
-        <v>3.3659217877094969</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1.3659217877094969</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J7">
-        <f>SUM(G2:G9)</f>
-        <v>5.1620111731843581</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-      <c r="F8">
-        <f>($J$22*B8)+$J$23</f>
-        <v>3.7262569832402233</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>1.2737430167597767</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <f>($J$22*B9)+$J$23</f>
-        <v>4.0865921787709496</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>8.6592178770949602E-2</v>
+        <f>SUM(G2:G6)</f>
+        <v>3.517343999999975E-2</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>J4</f>
-        <v>77.5</v>
-      </c>
-      <c r="J12" s="6">
+        <v>13.700000000000003</v>
+      </c>
+      <c r="J12" s="5">
         <f>J2</f>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <f>J5</f>
-        <v>66</v>
+        <v>3.0782054199999997</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f>J2</f>
-        <v>21</v>
-      </c>
-      <c r="J13" s="6">
-        <f>COUNT(B2:B9)</f>
         <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <f>COUNT(B2:B6)</f>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <f>J3</f>
-        <v>19</v>
+        <v>2.2328667999999996</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <f t="array" ref="I17:J18">MINVERSE(I12:J13)</f>
-        <v>4.4692737430167613E-2</v>
-      </c>
-      <c r="J17" s="9">
-        <v>-0.11731843575418999</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+        <v>1.1111111111111065</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-1.7777777777777706</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I18" s="9">
-        <v>-0.11731843575419</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.43296089385474879</v>
-      </c>
-      <c r="L18" s="11"/>
+      <c r="I18" s="7">
+        <v>-1.7777777777777704</v>
+      </c>
+      <c r="J18" s="7">
+        <v>3.0444444444444327</v>
+      </c>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="L19" s="11"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <f t="array" ref="J22:J23">MMULT(I17:J18,L12:L13)</f>
-        <v>0.7206703910614527</v>
+        <v>-0.54931273333333097</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="12">
-        <v>0.48324022346368611</v>
+      <c r="J23" s="10">
+        <v>1.3254737333333297</v>
       </c>
     </row>
   </sheetData>
@@ -1190,11 +1121,383 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567A531-2897-4F16-9193-BC4A86D2414E}">
+  <dimension ref="B1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="0">($J$22*B2)+$J$23</f>
+        <v>0.48324022346368611</v>
+      </c>
+      <c r="G2">
+        <f>ABS(C2-F2)</f>
+        <v>0.51675977653631389</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:B9)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">B3*B3</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">B3*C3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.2039106145251388</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="3">ABS(C3-F3)</f>
+        <v>0.70391061452513881</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>SUM(C2:C9)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.5642458100558652</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.43575418994413484</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f>SUM(D2:D9)</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.9245810055865915</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.42458100558659151</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>SUM(E2:E9)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.6452513966480442</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.35474860335195579</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>SUM(F2:F9)</f>
+        <v>18.999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.3659217877094969</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1.3659217877094969</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f>SUM(G2:G9)</f>
+        <v>5.1620111731843581</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.7262569832402233</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1.2737430167597767</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.0865921787709496</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>8.6592178770949602E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I12" s="5">
+        <f>J4</f>
+        <v>77.5</v>
+      </c>
+      <c r="J12" s="5">
+        <f>J2</f>
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5">
+        <f>J5</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="5">
+        <f>J2</f>
+        <v>21</v>
+      </c>
+      <c r="J13" s="5">
+        <f>COUNT(B2:B9)</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <f>J3</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="I16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="7">
+        <f t="array" ref="I17:J18">MINVERSE(I12:J13)</f>
+        <v>4.4692737430167613E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>-0.11731843575418999</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I18" s="7">
+        <v>-0.11731843575419</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.43296089385474879</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="L19" s="9"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="array" ref="J22:J23">MMULT(I17:J18,L12:L13)</f>
+        <v>0.7206703910614527</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0.48324022346368611</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I21:J21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7270274-3ADB-4253-A6DA-EECC24AC3B9A}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>B2*C2</f>
+        <f t="shared" ref="G2:G9" si="0">B2*C2</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -1259,11 +1562,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>($N$26*B2)+$N$27</f>
+        <f t="shared" ref="I2:I9" si="1">($N$26*B2)+$N$27</f>
         <v>0.27557644195009168</v>
       </c>
       <c r="J2">
-        <f>ABS(C2-I2)</f>
+        <f t="shared" ref="J2:J9" si="2">ABS(C2-I2)</f>
         <v>0.72442355804990832</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1282,31 +1585,31 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">B3*B3</f>
+        <f t="shared" ref="D3:D9" si="3">B3*B3</f>
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">B3*D3</f>
+        <f t="shared" ref="E3:E9" si="4">B3*D3</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">B3*E3</f>
+        <f t="shared" ref="F3:F9" si="5">B3*E3</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="3">D3*C3</f>
+        <f t="shared" ref="H3:H9" si="6">D3*C3</f>
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f>($N$26*B3)+$N$27</f>
+        <f t="shared" si="1"/>
         <v>0.36138346068023242</v>
       </c>
       <c r="J3">
-        <f>ABS(C3-I3)</f>
+        <f t="shared" si="2"/>
         <v>0.13861653931976758</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -1325,31 +1628,31 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>3.375</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="5"/>
+        <v>5.0625</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>3.375</v>
-      </c>
-      <c r="F4">
+        <v>0.40428697004530278</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="2"/>
-        <v>5.0625</v>
-      </c>
-      <c r="G4">
-        <f>B4*C4</f>
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="I4">
-        <f>($N$26*B4)+$N$27</f>
-        <v>0.40428697004530278</v>
-      </c>
-      <c r="J4">
-        <f>ABS(C4-I4)</f>
         <v>1.5957130299546973</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1368,31 +1671,31 @@
         <v>1.5</v>
       </c>
       <c r="D5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F5">
+        <v>0.44719047941037315</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <f>B5*C5</f>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <f>($N$26*B5)+$N$27</f>
-        <v>0.44719047941037315</v>
-      </c>
-      <c r="J5">
-        <f>ABS(C5-I5)</f>
         <v>1.0528095205896268</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1411,31 +1714,31 @@
         <v>3</v>
       </c>
       <c r="D6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F6">
+        <v>0.53299749814051389</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="G6">
-        <f>B6*C6</f>
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="I6">
-        <f>($N$26*B6)+$N$27</f>
-        <v>0.53299749814051389</v>
-      </c>
-      <c r="J6">
-        <f>ABS(C6-I6)</f>
         <v>2.4670025018594863</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1454,31 +1757,31 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="F7">
+        <v>0.61880451687065463</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="G7">
-        <f>B7*C7</f>
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <f>($N$26*B7)+$N$27</f>
-        <v>0.61880451687065463</v>
-      </c>
-      <c r="J7">
-        <f>ABS(C7-I7)</f>
         <v>1.3811954831293454</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1497,34 +1800,34 @@
         <v>5</v>
       </c>
       <c r="D8">
+        <f t="shared" si="3"/>
+        <v>20.25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>91.125</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>410.0625</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="E8">
+        <v>22.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>101.25</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>91.125</v>
-      </c>
-      <c r="F8">
+        <v>0.661708026235725</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="2"/>
-        <v>410.0625</v>
-      </c>
-      <c r="G8">
-        <f>B8*C8</f>
-        <v>22.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>101.25</v>
-      </c>
-      <c r="I8">
-        <f>($N$26*B8)+$N$27</f>
-        <v>0.661708026235725</v>
-      </c>
-      <c r="J8">
-        <f>ABS(C8-I8)</f>
         <v>4.3382919737642753</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="M8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1541,31 +1844,31 @@
         <v>4</v>
       </c>
       <c r="D9">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="F9">
+        <v>0.70461153560079537</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>625</v>
-      </c>
-      <c r="G9">
-        <f>B9*C9</f>
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <f>($N$26*B9)+$N$27</f>
-        <v>0.70461153560079537</v>
-      </c>
-      <c r="J9">
-        <f>ABS(C9-I9)</f>
         <v>3.2953884643992044</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1586,162 +1889,162 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G14" s="10"/>
-      <c r="M14" s="6">
+      <c r="G14" s="8"/>
+      <c r="M14" s="5">
         <f>N6</f>
         <v>1394.125</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f>N5</f>
         <v>319.5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <f>N4</f>
         <v>77.5</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <f>N8</f>
         <v>271.25</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f>N5</f>
         <v>319.5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f>N4</f>
         <v>77.5</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <f>N2</f>
         <v>21</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <f>N7</f>
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G16" s="10"/>
-      <c r="M16" s="6">
+      <c r="G16" s="8"/>
+      <c r="M16" s="5">
         <f>N4</f>
         <v>77.5</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <f>N2</f>
         <v>21</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <f>COUNT(B2:B9)</f>
         <v>8</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <f>N3</f>
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="Q19" s="10"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M20" s="16">
+      <c r="M20" s="12">
         <f t="array" ref="M20:O22">MINVERSE(M14:O16)</f>
         <v>2.4207181012915042E-2</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="12">
         <v>-0.12556629927648943</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="12">
         <v>9.510446953817038E-2</v>
       </c>
     </row>
     <row r="21" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M21" s="16">
+      <c r="M21" s="12">
         <v>-0.12556629927648946</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="12">
         <v>0.69602407194536553</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="13">
         <v>-0.61063966461559316</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M22" s="16">
+      <c r="M22" s="12">
         <v>9.5104469538170353E-2</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="12">
         <v>-0.61063966461559305</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="12">
         <v>0.80660457096490645</v>
       </c>
-      <c r="P22" s="11"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="P23" s="11"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="25" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="10">
         <f t="array" ref="N26:N28">MMULT(M20:O22,Q14:Q16)</f>
         <v>8.5807018730140738E-2</v>
       </c>
     </row>
     <row r="27" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="10">
         <v>0.27557644195009168</v>
       </c>
     </row>
     <row r="28" spans="13:17" x14ac:dyDescent="0.3">
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="10">
         <v>0.8203563459327885</v>
       </c>
     </row>
